--- a/Economics/Ljung_Box/First Difference/unp_rate.xlsx
+++ b/Economics/Ljung_Box/First Difference/unp_rate.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01725427794245594</v>
+        <v>0.05754297556544763</v>
+      </c>
+      <c r="C2">
+        <v>0.8104223791332257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.628077991259834</v>
+        <v>1.504919632471649</v>
+      </c>
+      <c r="C3">
+        <v>0.4712060457274749</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.057473658863581</v>
+        <v>1.834237626314677</v>
       </c>
       <c r="C4">
-        <v>0.1514611004762548</v>
+        <v>0.607512936652391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.933597236119979</v>
+        <v>2.552074480549618</v>
       </c>
       <c r="C5">
-        <v>0.006965411321098378</v>
+        <v>0.6353359518338821</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10.78449349459442</v>
+        <v>2.552273793022121</v>
       </c>
       <c r="C6">
-        <v>0.0129501466721833</v>
+        <v>0.768602776255314</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10.80381219910702</v>
+        <v>3.863931719724192</v>
       </c>
       <c r="C7">
-        <v>0.02885966523061093</v>
+        <v>0.6950840316823748</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.81483121985411</v>
+        <v>3.955806581653218</v>
       </c>
       <c r="C8">
-        <v>0.055177484136703</v>
+        <v>0.7848533455405281</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.93615291821634</v>
+        <v>4.868270151498472</v>
       </c>
       <c r="C9">
-        <v>0.06340840542178847</v>
+        <v>0.7715583880126324</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13.06712683418211</v>
+        <v>5.143628910961158</v>
       </c>
       <c r="C10">
-        <v>0.07048965101125486</v>
+        <v>0.8216122703315079</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.19488024813337</v>
+        <v>5.184141933031603</v>
       </c>
       <c r="C11">
-        <v>0.1053179857697501</v>
+        <v>0.8785424301138769</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>13.2197780185708</v>
+        <v>5.252158122756062</v>
       </c>
       <c r="C12">
-        <v>0.1529111016794662</v>
+        <v>0.9183421706195128</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25.09804877873256</v>
+        <v>15.71369857026016</v>
       </c>
       <c r="C13">
-        <v>0.005162722094379178</v>
+        <v>0.2047038665568671</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25.11401508909945</v>
+        <v>16.03505243795044</v>
       </c>
       <c r="C14">
-        <v>0.008772660553592933</v>
+        <v>0.2472422198034743</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29.71808585427807</v>
+        <v>18.8650204626796</v>
       </c>
       <c r="C15">
-        <v>0.003078502574006264</v>
+        <v>0.1701712560120296</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>30.10577189173539</v>
+        <v>18.89821336319717</v>
       </c>
       <c r="C16">
-        <v>0.004547169466315852</v>
+        <v>0.2183834745754696</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30.65939996918601</v>
+        <v>19.31556401003565</v>
       </c>
       <c r="C17">
-        <v>0.006184890555980598</v>
+        <v>0.2526391303711862</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>30.80371580431959</v>
+        <v>19.32031627516617</v>
       </c>
       <c r="C18">
-        <v>0.009331550634834755</v>
+        <v>0.310459107758517</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>33.87566907829233</v>
+        <v>22.80224494919108</v>
       </c>
       <c r="C19">
-        <v>0.005646428230651863</v>
+        <v>0.1983041537211332</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34.23542870225069</v>
+        <v>23.66323303345455</v>
       </c>
       <c r="C20">
-        <v>0.007827578315936501</v>
+        <v>0.2093890033202541</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>34.28589855639014</v>
+        <v>23.8482801834829</v>
       </c>
       <c r="C21">
-        <v>0.01160951985534962</v>
+        <v>0.2490824552090633</v>
       </c>
     </row>
   </sheetData>
